--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DC677-F096-40DE-BFFC-7631A4C942BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B176509-043F-4B85-9CCB-1C3476B0EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="134">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -437,13 +437,16 @@
   </si>
   <si>
     <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>BR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +489,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -532,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -593,16 +602,25 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,17 +628,17 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -643,25 +661,52 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -946,9 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1025,16 +1068,16 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="11">
-        <v>6000</v>
+        <v>2400</v>
       </c>
       <c r="C2" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D2" s="13">
-        <v>24000</v>
+        <v>9600</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
@@ -1049,8 +1092,8 @@
         <v>0</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="12">
-        <v>13505</v>
+      <c r="J2" s="16">
+        <v>13506</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>1</v>
@@ -1058,12 +1101,12 @@
       <c r="L2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="16">
-        <v>-6000</v>
+      <c r="M2" s="17">
+        <v>-2400</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Grãos Finos</v>
+        <v>VV Grãos Mistos</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
@@ -1083,63 +1126,133 @@
       </c>
       <c r="S2" s="1">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12">
+        <v>672</v>
+      </c>
+      <c r="C3" s="12">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13">
+        <v>7925</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="12">
+        <v>13516</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="18">
+        <v>-672</v>
+      </c>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v/>
+        <v>SY Large Grains</v>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>26lb</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v/>
+        <v>CANADA</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v/>
+        <v>LEIS PET</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!A:D,4,FALSE)))</f>
-        <v/>
+        <v>GMA</v>
       </c>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2600</v>
+      </c>
+      <c r="C4" s="21">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22">
+        <v>10400</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="21">
+        <v>13507</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="25">
+        <v>-2600</v>
+      </c>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
-        <v/>
+        <v>VV Grãos Mistos</v>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>4kg</v>
       </c>
       <c r="P4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","BRASIL",VLOOKUP(K4,clientes!$A:$D,2,FALSE)))</f>
-        <v/>
+        <v>BRASIL</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","AMAZON",VLOOKUP(K4,clientes!$A:$D,3,FALSE)))</f>
-        <v/>
+        <v>PETFIVE</v>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!A:D,4,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S4" s="1" t="str">
+        <v>PBR</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B176509-043F-4B85-9CCB-1C3476B0EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BDDFE6-D52F-41A4-9759-4D15CA12525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -328,9 +328,6 @@
     <t>PBR FUMIGADO</t>
   </si>
   <si>
-    <t>COLÔMBIA</t>
-  </si>
-  <si>
     <t>EUROPEU</t>
   </si>
   <si>
@@ -382,15 +379,6 @@
     <t>VV Limpeza Plena</t>
   </si>
   <si>
-    <t>VV Grãos Mistos</t>
-  </si>
-  <si>
-    <t>VV Grãos Finos</t>
-  </si>
-  <si>
-    <t>VV Grãos Grossos</t>
-  </si>
-  <si>
     <t>SY Large Grains</t>
   </si>
   <si>
@@ -440,6 +428,15 @@
   </si>
   <si>
     <t>BR</t>
+  </si>
+  <si>
+    <t>VV Graos Mistos</t>
+  </si>
+  <si>
+    <t>VV Graos Finos</t>
+  </si>
+  <si>
+    <t>VV Graos Grossos</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5353"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,13 +682,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,6 +704,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -991,7 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1033,7 +1035,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>40</v>
@@ -1048,22 +1050,22 @@
         <v>7</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1092,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="16">
+      <c r="J2" s="24">
         <v>13506</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -1101,12 +1103,12 @@
       <c r="L2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>-2400</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Grãos Mistos</v>
+        <v>VV Graos Mistos</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
@@ -1129,130 +1131,106 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12">
-        <v>672</v>
-      </c>
-      <c r="C3" s="12">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13">
-        <v>7925</v>
-      </c>
-      <c r="E3" s="14">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="14">
+      <c r="B3" s="18">
+        <v>2600</v>
+      </c>
+      <c r="C3" s="19">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20">
+        <v>10400</v>
+      </c>
+      <c r="E3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" s="14">
+      <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="12">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12">
-        <v>13516</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="18">
-        <v>-672</v>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="19">
+        <v>13507</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="23">
+        <v>-2600</v>
       </c>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v>SY Large Grains</v>
+        <v>VV Graos Mistos</v>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v>26lb</v>
+        <v>4kg</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v>CANADA</v>
+        <v>BRASIL</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v>LEIS PET</v>
+        <v>PETFIVE</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!A:D,4,FALSE)))</f>
-        <v>GMA</v>
-      </c>
-      <c r="S3" s="1" t="str">
+        <v>PBR</v>
+      </c>
+      <c r="S3" s="1">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v>07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20">
-        <v>2600</v>
-      </c>
-      <c r="C4" s="21">
-        <v>10</v>
-      </c>
-      <c r="D4" s="22">
-        <v>10400</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="21">
-        <v>13507</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="25">
-        <v>-2600</v>
-      </c>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Grãos Mistos</v>
+        <v/>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,3,FALSE))</f>
-        <v>4kg</v>
+        <v/>
       </c>
       <c r="P4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","BRASIL",VLOOKUP(K4,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v/>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","AMAZON",VLOOKUP(K4,clientes!$A:$D,3,FALSE)))</f>
-        <v>PETFIVE</v>
+        <v/>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!A:D,4,FALSE)))</f>
-        <v>PBR</v>
-      </c>
-      <c r="S4" s="1">
+        <v/>
+      </c>
+      <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1770,7 +1748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F78EC07-1ED9-455E-B29B-AA1B495CE67D}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1782,10 +1762,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1793,10 +1773,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1804,10 +1784,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1815,10 +1795,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1826,10 +1806,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1837,10 +1817,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1848,10 +1828,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1859,10 +1839,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1870,10 +1850,10 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1881,10 +1861,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1892,10 +1872,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1903,10 +1883,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1914,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1925,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1936,10 +1916,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1947,10 +1927,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1958,10 +1938,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1969,10 +1949,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1980,10 +1960,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1991,10 +1971,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2002,10 +1982,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2013,10 +1993,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2024,10 +2004,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2035,10 +2015,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2046,10 +2026,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2057,10 +2037,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2068,10 +2048,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2079,10 +2059,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2090,10 +2070,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2101,10 +2081,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308118E5-66DF-45FE-A3F8-7015D155A8F0}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2196,7 +2178,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -2210,7 +2192,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -2224,7 +2206,7 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -2238,7 +2220,7 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
@@ -2252,7 +2234,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
@@ -2280,7 +2262,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -2314,7 +2296,7 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2322,7 +2304,7 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -2350,7 +2332,7 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
@@ -2409,7 +2391,7 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>94</v>
@@ -2420,7 +2402,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
@@ -2437,7 +2419,7 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>94</v>
@@ -2451,7 +2433,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>94</v>
@@ -2490,13 +2472,13 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2504,7 +2486,7 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
         <v>87</v>
@@ -2535,7 +2517,7 @@
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
         <v>94</v>
@@ -2549,7 +2531,7 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
         <v>94</v>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BDDFE6-D52F-41A4-9759-4D15CA12525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D44FD-7CE8-479C-9CA0-D371B0397C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,11 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6328125" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.6328125" style="5" customWidth="1"/>
@@ -1006,7 +1004,7 @@
     <col min="14" max="14" width="36.6328125" style="5" customWidth="1"/>
     <col min="15" max="15" width="7.6328125" style="5" customWidth="1"/>
     <col min="16" max="19" width="14.6328125" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="5"/>
+    <col min="20" max="16384" width="8.7265625" style="5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1123,7 +1121,7 @@
         <v>AMAZON</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
         <v>PBR</v>
       </c>
       <c r="S2" s="1">
@@ -1186,7 +1184,7 @@
         <v>PETFIVE</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
         <v>PBR</v>
       </c>
       <c r="S3" s="1">
@@ -1225,7 +1223,7 @@
         <v/>
       </c>
       <c r="R4" s="1" t="str">
-        <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S4" s="1" t="str">
@@ -1253,7 +1251,7 @@
         <v/>
       </c>
       <c r="R5" s="1" t="str">
-        <f>IF(N5="","",IF(L5="amazon","PBR",VLOOKUP(K5,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N5="","",IF(L5="amazon","PBR",VLOOKUP(K5,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S5" s="1" t="str">
@@ -1281,7 +1279,7 @@
         <v/>
       </c>
       <c r="R6" s="1" t="str">
-        <f>IF(N6="","",IF(L6="amazon","PBR",VLOOKUP(K6,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N6="","",IF(L6="amazon","PBR",VLOOKUP(K6,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S6" s="1" t="str">
@@ -1309,7 +1307,7 @@
         <v/>
       </c>
       <c r="R7" s="1" t="str">
-        <f>IF(N7="","",IF(L7="amazon","PBR",VLOOKUP(K7,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N7="","",IF(L7="amazon","PBR",VLOOKUP(K7,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S7" s="1" t="str">
@@ -1337,7 +1335,7 @@
         <v/>
       </c>
       <c r="R8" s="1" t="str">
-        <f>IF(N8="","",IF(L8="amazon","PBR",VLOOKUP(K8,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N8="","",IF(L8="amazon","PBR",VLOOKUP(K8,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S8" s="1" t="str">
@@ -1365,7 +1363,7 @@
         <v/>
       </c>
       <c r="R9" s="1" t="str">
-        <f>IF(N9="","",IF(L9="amazon","PBR",VLOOKUP(K9,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N9="","",IF(L9="amazon","PBR",VLOOKUP(K9,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S9" s="1" t="str">
@@ -1393,7 +1391,7 @@
         <v/>
       </c>
       <c r="R10" s="1" t="str">
-        <f>IF(N10="","",IF(L10="amazon","PBR",VLOOKUP(K10,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N10="","",IF(L10="amazon","PBR",VLOOKUP(K10,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S10" s="1" t="str">
@@ -1421,7 +1419,7 @@
         <v/>
       </c>
       <c r="R11" s="1" t="str">
-        <f>IF(N11="","",IF(L11="amazon","PBR",VLOOKUP(K11,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N11="","",IF(L11="amazon","PBR",VLOOKUP(K11,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S11" s="1" t="str">
@@ -1449,7 +1447,7 @@
         <v/>
       </c>
       <c r="R12" s="1" t="str">
-        <f>IF(N12="","",IF(L12="amazon","PBR",VLOOKUP(K12,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N12="","",IF(L12="amazon","PBR",VLOOKUP(K12,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S12" s="1" t="str">
@@ -1477,7 +1475,7 @@
         <v/>
       </c>
       <c r="R13" s="1" t="str">
-        <f>IF(N13="","",IF(L13="amazon","PBR",VLOOKUP(K13,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N13="","",IF(L13="amazon","PBR",VLOOKUP(K13,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S13" s="1" t="str">
@@ -1505,7 +1503,7 @@
         <v/>
       </c>
       <c r="R14" s="1" t="str">
-        <f>IF(N14="","",IF(L14="amazon","PBR",VLOOKUP(K14,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N14="","",IF(L14="amazon","PBR",VLOOKUP(K14,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S14" s="1" t="str">
@@ -1533,7 +1531,7 @@
         <v/>
       </c>
       <c r="R15" s="1" t="str">
-        <f>IF(N15="","",IF(L15="amazon","PBR",VLOOKUP(K15,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N15="","",IF(L15="amazon","PBR",VLOOKUP(K15,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S15" s="1" t="str">
@@ -1561,7 +1559,7 @@
         <v/>
       </c>
       <c r="R16" s="1" t="str">
-        <f>IF(N16="","",IF(L16="amazon","PBR",VLOOKUP(K16,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N16="","",IF(L16="amazon","PBR",VLOOKUP(K16,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S16" s="1" t="str">
@@ -1589,7 +1587,7 @@
         <v/>
       </c>
       <c r="R17" s="1" t="str">
-        <f>IF(N17="","",IF(L17="amazon","PBR",VLOOKUP(K17,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N17="","",IF(L17="amazon","PBR",VLOOKUP(K17,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S17" s="1" t="str">
@@ -1617,7 +1615,7 @@
         <v/>
       </c>
       <c r="R18" s="1" t="str">
-        <f>IF(N18="","",IF(L18="amazon","PBR",VLOOKUP(K18,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N18="","",IF(L18="amazon","PBR",VLOOKUP(K18,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S18" s="1" t="str">
@@ -1645,7 +1643,7 @@
         <v/>
       </c>
       <c r="R19" s="1" t="str">
-        <f>IF(N19="","",IF(L19="amazon","PBR",VLOOKUP(K19,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N19="","",IF(L19="amazon","PBR",VLOOKUP(K19,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S19" s="1" t="str">
@@ -1673,7 +1671,7 @@
         <v/>
       </c>
       <c r="R20" s="1" t="str">
-        <f>IF(N20="","",IF(L20="amazon","PBR",VLOOKUP(K20,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N20="","",IF(L20="amazon","PBR",VLOOKUP(K20,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S20" s="1" t="str">
@@ -1701,7 +1699,7 @@
         <v/>
       </c>
       <c r="R21" s="1" t="str">
-        <f>IF(N21="","",IF(L21="amazon","PBR",VLOOKUP(K21,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N21="","",IF(L21="amazon","PBR",VLOOKUP(K21,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S21" s="1" t="str">
@@ -1729,7 +1727,7 @@
         <v/>
       </c>
       <c r="R22" s="1" t="str">
-        <f>IF(N22="","",IF(L22="amazon","PBR",VLOOKUP(K22,clientes!A:D,4,FALSE)))</f>
+        <f>IF(N22="","",IF(L22="amazon","PBR",VLOOKUP(K22,clientes!$A:$D,4,FALSE)))</f>
         <v/>
       </c>
       <c r="S22" s="1" t="str">
@@ -1748,9 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F78EC07-1ED9-455E-B29B-AA1B495CE67D}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2097,9 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308118E5-66DF-45FE-A3F8-7015D155A8F0}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608D44FD-7CE8-479C-9CA0-D371B0397C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A14FB-61C5-4248-941A-9A66C982412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t>COLOMBIA</t>
-  </si>
-  <si>
-    <t>BR</t>
   </si>
   <si>
     <t>VV Graos Mistos</t>
@@ -494,7 +491,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,14 +534,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -613,35 +604,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,9 +634,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,31 +646,13 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -991,7 +937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1068,108 +1016,108 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11">
+        <v>768</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12">
+        <v>9057</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
-        <v>2400</v>
-      </c>
-      <c r="C2" s="12">
-        <v>12</v>
-      </c>
-      <c r="D2" s="13">
-        <v>9600</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H2" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="24">
-        <v>13506</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="16">
-        <v>-2400</v>
+      <c r="I2" s="14"/>
+      <c r="J2" s="11">
+        <v>13531</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="15">
+        <v>-768</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Mistos</v>
+        <v>SY Small Grains</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>4kg</v>
+        <v>26lb</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v>CANADA</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","AMAZON",VLOOKUP(K2,clientes!$A:$D,3,FALSE)))</f>
-        <v>AMAZON</v>
+        <v>LEIS PET</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
-        <v>PBR</v>
-      </c>
-      <c r="S2" s="1">
+        <v>GMA</v>
+      </c>
+      <c r="S2" s="1" t="str">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+        <v>08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16">
+        <v>4800</v>
+      </c>
+      <c r="C3" s="11">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12">
+        <v>19200</v>
+      </c>
+      <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="B3" s="18">
-        <v>2600</v>
-      </c>
-      <c r="C3" s="19">
-        <v>10</v>
-      </c>
-      <c r="D3" s="20">
-        <v>10400</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="21">
+      <c r="G3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="H3" s="11">
         <v>0</v>
       </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="19">
-        <v>13507</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="11">
+        <v>13532</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="23">
-        <v>-2600</v>
+      <c r="L3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="17">
+        <v>-4800</v>
       </c>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Mistos</v>
+        <v>VV Graos Finos</v>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
@@ -1181,7 +1129,7 @@
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v>PETFIVE</v>
+        <v>AMAZON</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
@@ -1189,46 +1137,70 @@
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2600</v>
+      </c>
+      <c r="C4" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="23"/>
+      <c r="D4" s="12">
+        <v>11793</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="11">
+        <v>13534</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="17">
+        <v>-2600</v>
+      </c>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
-        <v/>
+        <v>SY Small Grains</v>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>10lb</v>
       </c>
       <c r="P4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","BRASIL",VLOOKUP(K4,clientes!$A:$D,2,FALSE)))</f>
-        <v/>
+        <v>EUA</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","AMAZON",VLOOKUP(K4,clientes!$A:$D,3,FALSE)))</f>
-        <v/>
+        <v>HOUSTON</v>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!$A:$D,4,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S4" s="1" t="str">
+        <v>GMA</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1890,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
@@ -1901,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -1912,7 +1884,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>102</v>
@@ -2022,7 +1994,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
@@ -2066,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
         <v>106</v>
@@ -2077,7 +2049,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98A14FB-61C5-4248-941A-9A66C982412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964396AB-746A-4FFF-BA7D-59097365BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="135">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t>VV Graos Grossos</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>AndeanVet</t>
+  </si>
+  <si>
+    <t>ANDEAN VET</t>
   </si>
 </sst>
 </file>
@@ -646,13 +655,13 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,9 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1016,16 +1023,16 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="11">
-        <v>768</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1440</v>
       </c>
       <c r="C2" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="12">
-        <v>9057</v>
+        <v>5760</v>
       </c>
       <c r="E2" s="13">
         <v>0</v>
@@ -1041,32 +1048,32 @@
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="11">
-        <v>13531</v>
+        <v>13594</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="15">
-        <v>-768</v>
+        <v>133</v>
+      </c>
+      <c r="M2" s="16">
+        <v>-1440</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>SY Small Grains</v>
+        <v>VV Graos Mistos</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>26lb</v>
+        <v>4kg</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
-        <v>CANADA</v>
+        <v>PERU</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","AMAZON",VLOOKUP(K2,clientes!$A:$D,3,FALSE)))</f>
-        <v>LEIS PET</v>
+        <v>ANDEAN VET</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
@@ -1074,21 +1081,21 @@
       </c>
       <c r="S2" s="1" t="str">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>08</v>
+        <v>05</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16">
-        <v>4800</v>
+      <c r="B3" s="11">
+        <v>864</v>
       </c>
       <c r="C3" s="11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D3" s="12">
-        <v>19200</v>
+        <v>3456</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
@@ -1104,16 +1111,16 @@
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="11">
-        <v>13532</v>
+        <v>13595</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="M3" s="17">
-        <v>-4800</v>
+        <v>-864</v>
       </c>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
@@ -1125,33 +1132,33 @@
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v>PERU</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v>AMAZON</v>
+        <v>ANDEAN VET</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
-        <v>PBR</v>
-      </c>
-      <c r="S3" s="1">
+        <v>GMA</v>
+      </c>
+      <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v>24</v>
+        <v>03</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2600</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="11">
+        <v>576</v>
       </c>
       <c r="C4" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" s="12">
-        <v>11793</v>
+        <v>2304</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
@@ -1167,40 +1174,40 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="11">
-        <v>13534</v>
+        <v>13596</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="M4" s="17">
-        <v>-2600</v>
+        <v>-576</v>
       </c>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
-        <v>SY Small Grains</v>
+        <v>VV Graos Grossos</v>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,3,FALSE))</f>
-        <v>10lb</v>
+        <v>4kg</v>
       </c>
       <c r="P4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","BRASIL",VLOOKUP(K4,clientes!$A:$D,2,FALSE)))</f>
-        <v>EUA</v>
+        <v>PERU</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","AMAZON",VLOOKUP(K4,clientes!$A:$D,3,FALSE)))</f>
-        <v>HOUSTON</v>
+        <v>ANDEAN VET</v>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!$A:$D,4,FALSE)))</f>
         <v>GMA</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>02</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1718,7 +1725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F78EC07-1ED9-455E-B29B-AA1B495CE67D}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2063,7 +2072,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308118E5-66DF-45FE-A3F8-7015D155A8F0}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -2545,6 +2554,20 @@
         <v>90</v>
       </c>
     </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964396AB-746A-4FFF-BA7D-59097365BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7216582D-E992-4046-9219-4F3FF3C792AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -617,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,13 +655,22 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -946,7 +955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1022,192 +1033,144 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="16">
+        <v>240</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17">
+        <v>2400</v>
+      </c>
+      <c r="E2" s="18">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
-        <v>1440</v>
-      </c>
-      <c r="C2" s="11">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12">
-        <v>5760</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="F2" s="18">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="18">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
+      <c r="H2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11">
-        <v>13594</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="16">
-        <v>-1440</v>
+      <c r="I2" s="19"/>
+      <c r="J2" s="16">
+        <v>13678</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="20">
+        <v>-240</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Mistos</v>
+        <v>VV Graos Grossos</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>4kg</v>
+        <v>10kg</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
-        <v>PERU</v>
+        <v>BRASIL</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","AMAZON",VLOOKUP(K2,clientes!$A:$D,3,FALSE)))</f>
-        <v>ANDEAN VET</v>
+        <v>AMAZON</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
-        <v>GMA</v>
+        <v>PBR</v>
       </c>
       <c r="S2" s="1" t="str">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>05</v>
+        <v>03</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>864</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12">
-        <v>3456</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="11">
-        <v>13595</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="17">
-        <v>-864</v>
-      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Finos</v>
+        <v/>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v>4kg</v>
+        <v/>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v>PERU</v>
+        <v/>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v>ANDEAN VET</v>
+        <v/>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
-        <v>GMA</v>
+        <v/>
       </c>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v>03</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11">
-        <v>576</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12">
-        <v>2304</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="11">
-        <v>13596</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="17">
-        <v>-576</v>
-      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Grossos</v>
+        <v/>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,3,FALSE))</f>
-        <v>4kg</v>
+        <v/>
       </c>
       <c r="P4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","BRASIL",VLOOKUP(K4,clientes!$A:$D,2,FALSE)))</f>
-        <v>PERU</v>
+        <v/>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","AMAZON",VLOOKUP(K4,clientes!$A:$D,3,FALSE)))</f>
-        <v>ANDEAN VET</v>
+        <v/>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!$A:$D,4,FALSE)))</f>
-        <v>GMA</v>
+        <v/>
       </c>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>02</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7216582D-E992-4046-9219-4F3FF3C792AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DAA758-3936-412F-8104-97A39D9BB406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,14 +493,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,8 +537,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -613,11 +613,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -640,24 +664,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,7 +676,34 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,81 +1066,81 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="16">
-        <v>240</v>
-      </c>
-      <c r="C2" s="16">
-        <v>3</v>
-      </c>
-      <c r="D2" s="17">
-        <v>2400</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2600</v>
+      </c>
+      <c r="C2" s="19">
+        <v>10</v>
+      </c>
+      <c r="D2" s="20">
+        <v>11793</v>
+      </c>
+      <c r="E2" s="21">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="21">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="19">
         <v>0</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="16">
-        <v>13678</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="20">
-        <v>-240</v>
+      <c r="I2" s="22"/>
+      <c r="J2" s="19">
+        <v>13585</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="23">
+        <v>-2600</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Grossos</v>
+        <v>SY Small Grains</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>10kg</v>
+        <v>10lb</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v>EUA</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","AMAZON",VLOOKUP(K2,clientes!$A:$D,3,FALSE)))</f>
-        <v>AMAZON</v>
+        <v>HOUSTON</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
-        <v>PBR</v>
-      </c>
-      <c r="S2" s="1" t="str">
+        <v>GMA</v>
+      </c>
+      <c r="S2" s="1">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>03</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="15"/>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
@@ -1135,18 +1168,18 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="15"/>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DAA758-3936-412F-8104-97A39D9BB406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0524B4CA-DF8E-41BE-A80E-E0E57706379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -443,13 +443,16 @@
   </si>
   <si>
     <t>ANDEAN VET</t>
+  </si>
+  <si>
+    <t>BR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,8 +496,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,12 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5353"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,10 +623,10 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,17 +634,17 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,46 +667,49 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,7 +995,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1066,177 +1072,271 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="18">
-        <v>2600</v>
-      </c>
-      <c r="C2" s="19">
-        <v>10</v>
-      </c>
-      <c r="D2" s="20">
-        <v>11793</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12">
+        <v>784</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13">
+        <v>7840</v>
+      </c>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="19">
-        <v>13585</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="23">
-        <v>-2600</v>
+      <c r="I2" s="15"/>
+      <c r="J2" s="12">
+        <v>13693</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="17">
+        <v>-784</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>SY Small Grains</v>
+        <v>VV Graos Grossos</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>10lb</v>
+        <v>10kg</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
-        <v>EUA</v>
+        <v>BRASIL</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","AMAZON",VLOOKUP(K2,clientes!$A:$D,3,FALSE)))</f>
-        <v>HOUSTON</v>
+        <v>PETFIVE</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
-        <v>GMA</v>
-      </c>
-      <c r="S2" s="1">
+        <v>PBR</v>
+      </c>
+      <c r="S2" s="1" t="str">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
+        <v>07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1120</v>
+      </c>
+      <c r="C3" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="15"/>
+      <c r="D3" s="13">
+        <v>11200</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="12">
+        <v>13679</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="16">
+        <v>-1120</v>
+      </c>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v/>
+        <v>VV Graos Mistos</v>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>10kg</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v/>
+        <v>BRASIL</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v/>
+        <v>PETFIVE</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S3" s="1" t="str">
+        <v>PBR</v>
+      </c>
+      <c r="S3" s="1">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="15"/>
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12">
+        <v>896</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8960</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="12">
+        <v>13694</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="17">
+        <v>-896</v>
+      </c>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
-        <v/>
+        <v>VV Graos Finos</v>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>10kg</v>
       </c>
       <c r="P4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","BRASIL",VLOOKUP(K4,clientes!$A:$D,2,FALSE)))</f>
-        <v/>
+        <v>BRASIL</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","AMAZON",VLOOKUP(K4,clientes!$A:$D,3,FALSE)))</f>
-        <v/>
+        <v>PETFIVE</v>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!$A:$D,4,FALSE)))</f>
-        <v/>
+        <v>PBR</v>
       </c>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="J5" s="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>5200</v>
+      </c>
+      <c r="C5" s="20">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21">
+        <v>20800</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="20">
+        <v>13695</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="24">
+        <v>-5200</v>
+      </c>
       <c r="N5" s="1" t="str">
         <f>IF(A5="","",VLOOKUP(A5,nomes!$A:$C,2,FALSE))</f>
-        <v/>
+        <v>VV Graos Finos</v>
       </c>
       <c r="O5" s="1" t="str">
         <f>IF(A5="","",VLOOKUP(A5,nomes!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>4kg</v>
       </c>
       <c r="P5" s="1" t="str">
         <f>IF(N5="","",IF(L5="amazon","BRASIL",VLOOKUP(K5,clientes!$A:$D,2,FALSE)))</f>
-        <v/>
+        <v>BRASIL</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f>IF(N5="","",IF(L5="amazon","AMAZON",VLOOKUP(K5,clientes!$A:$D,3,FALSE)))</f>
-        <v/>
+        <v>PETFIVE</v>
       </c>
       <c r="R5" s="1" t="str">
         <f>IF(N5="","",IF(L5="amazon","PBR",VLOOKUP(K5,clientes!$A:$D,4,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S5" s="1" t="str">
+        <v>PBR</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="1" t="str">
         <f>IF(A6="","",VLOOKUP(A6,nomes!$A:$C,2,FALSE))</f>
         <v/>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0524B4CA-DF8E-41BE-A80E-E0E57706379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9A7E8-8AFF-45CF-9C76-ACFDF41C6BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>ANDEAN VET</t>
-  </si>
-  <si>
-    <t>BR</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,6 +707,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,7 +1010,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1072,255 +1087,183 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="12">
-        <v>784</v>
-      </c>
-      <c r="C2" s="12">
-        <v>7</v>
-      </c>
-      <c r="D2" s="13">
-        <v>7840</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="25">
+        <v>1980</v>
+      </c>
+      <c r="C2" s="26">
+        <v>10</v>
+      </c>
+      <c r="D2" s="27">
+        <v>11675</v>
+      </c>
+      <c r="E2" s="28">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="28">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="28">
         <v>0</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="26">
         <v>0</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="12">
-        <v>13693</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="17">
-        <v>-784</v>
+      <c r="I2" s="29"/>
+      <c r="J2" s="26">
+        <v>13743</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="30">
+        <v>-1980</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Grossos</v>
+        <v>SY Large Grains</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>10kg</v>
+        <v>13lb</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v>EUA</v>
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","AMAZON",VLOOKUP(K2,clientes!$A:$D,3,FALSE)))</f>
-        <v>PETFIVE</v>
+        <v>FLORIDA</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
-        <v>PBR</v>
-      </c>
-      <c r="S2" s="1" t="str">
+        <v>GMA</v>
+      </c>
+      <c r="S2" s="1">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1120</v>
-      </c>
-      <c r="C3" s="12">
-        <v>10</v>
-      </c>
-      <c r="D3" s="13">
-        <v>11200</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="12">
-        <v>13679</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M3" s="16">
-        <v>-1120</v>
-      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Mistos</v>
+        <v/>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v>10kg</v>
+        <v/>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v/>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v>PETFIVE</v>
+        <v/>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
-        <v>PBR</v>
-      </c>
-      <c r="S3" s="1">
+        <v/>
+      </c>
+      <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="12">
-        <v>896</v>
-      </c>
-      <c r="C4" s="12">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13">
-        <v>8960</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="12">
-        <v>13694</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="17">
-        <v>-896</v>
-      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Finos</v>
+        <v/>
       </c>
       <c r="O4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,3,FALSE))</f>
-        <v>10kg</v>
+        <v/>
       </c>
       <c r="P4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","BRASIL",VLOOKUP(K4,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v/>
       </c>
       <c r="Q4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","AMAZON",VLOOKUP(K4,clientes!$A:$D,3,FALSE)))</f>
-        <v>PETFIVE</v>
+        <v/>
       </c>
       <c r="R4" s="1" t="str">
         <f>IF(N4="","",IF(L4="amazon","PBR",VLOOKUP(K4,clientes!$A:$D,4,FALSE)))</f>
-        <v>PBR</v>
+        <v/>
       </c>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19">
-        <v>5200</v>
-      </c>
-      <c r="C5" s="20">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21">
-        <v>20800</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="20">
-        <v>13695</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="24">
-        <v>-5200</v>
-      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="1" t="str">
         <f>IF(A5="","",VLOOKUP(A5,nomes!$A:$C,2,FALSE))</f>
-        <v>VV Graos Finos</v>
+        <v/>
       </c>
       <c r="O5" s="1" t="str">
         <f>IF(A5="","",VLOOKUP(A5,nomes!$A:$C,3,FALSE))</f>
-        <v>4kg</v>
+        <v/>
       </c>
       <c r="P5" s="1" t="str">
         <f>IF(N5="","",IF(L5="amazon","BRASIL",VLOOKUP(K5,clientes!$A:$D,2,FALSE)))</f>
-        <v>BRASIL</v>
+        <v/>
       </c>
       <c r="Q5" s="1" t="str">
         <f>IF(N5="","",IF(L5="amazon","AMAZON",VLOOKUP(K5,clientes!$A:$D,3,FALSE)))</f>
-        <v>PETFIVE</v>
+        <v/>
       </c>
       <c r="R5" s="1" t="str">
         <f>IF(N5="","",IF(L5="amazon","PBR",VLOOKUP(K5,clientes!$A:$D,4,FALSE)))</f>
-        <v>PBR</v>
-      </c>
-      <c r="S5" s="1">
+        <v/>
+      </c>
+      <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9A7E8-8AFF-45CF-9C76-ACFDF41C6BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB0C99-ECBD-4D7E-BBDA-397B49D72C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -544,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -637,11 +637,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,9 +711,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,9 +723,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -709,22 +747,40 @@
     <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1066,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+      <selection activeCell="A2" sqref="A2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1087,50 +1143,50 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="25">
-        <v>1980</v>
-      </c>
-      <c r="C2" s="26">
-        <v>10</v>
-      </c>
-      <c r="D2" s="27">
-        <v>11675</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24">
+        <v>480</v>
+      </c>
+      <c r="C2" s="24">
+        <v>5</v>
+      </c>
+      <c r="D2" s="25">
+        <v>5661</v>
+      </c>
+      <c r="E2" s="26">
         <v>0</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="26">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="26">
         <v>0</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <v>0</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="26">
-        <v>13743</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="30">
-        <v>-1980</v>
+      <c r="I2" s="27"/>
+      <c r="J2" s="24">
+        <v>13778</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="28">
+        <v>-480</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>SY Large Grains</v>
+        <v>SY Small Grains</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>13lb</v>
+        <v>26lb</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
@@ -1138,70 +1194,94 @@
       </c>
       <c r="Q2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","AMAZON",VLOOKUP(K2,clientes!$A:$D,3,FALSE)))</f>
-        <v>FLORIDA</v>
+        <v>FILADELFIA</v>
       </c>
       <c r="R2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
         <v>GMA</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="1" t="str">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="16"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="30">
+        <v>768</v>
+      </c>
+      <c r="C3" s="30">
+        <v>8</v>
+      </c>
+      <c r="D3" s="31">
+        <v>9057</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="30">
+        <v>13779</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="34">
+        <v>-768</v>
+      </c>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v/>
+        <v>SY Small Grains</v>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v/>
+        <v>26lb</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v/>
+        <v>EUA</v>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v/>
+        <v>FILADELFIA</v>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
-        <v/>
+        <v>GMA</v>
       </c>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v/>
+        <v>08</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1228,19 +1308,19 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="24"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="1" t="str">
         <f>IF(A5="","",VLOOKUP(A5,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1267,19 +1347,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="24"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="1" t="str">
         <f>IF(A6="","",VLOOKUP(A6,nomes!$A:$C,2,FALSE))</f>
         <v/>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB0C99-ECBD-4D7E-BBDA-397B49D72C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB83DB-8157-4F84-AF02-16840F5DD299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -622,7 +622,7 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,51 +633,7 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -745,42 +701,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,7 +986,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1143,42 +1063,42 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="24">
-        <v>480</v>
-      </c>
-      <c r="C2" s="24">
-        <v>5</v>
-      </c>
-      <c r="D2" s="25">
-        <v>5661</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="B2" s="11">
+        <v>960</v>
+      </c>
+      <c r="C2" s="11">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12">
+        <v>11322</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="11">
         <v>0</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="24">
-        <v>13778</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="11">
+        <v>13824</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="28">
-        <v>-480</v>
+      <c r="M2" s="15">
+        <v>-960</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
@@ -1200,48 +1120,48 @@
         <f>IF(N2="","",IF(L2="amazon","PBR",VLOOKUP(K2,clientes!$A:$D,4,FALSE)))</f>
         <v>GMA</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="S2" s="1">
         <f>IF(N2="","",IF(C2&lt;10,"0"&amp;C2,C2))</f>
-        <v>05</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="30">
-        <v>768</v>
-      </c>
-      <c r="C3" s="30">
-        <v>8</v>
-      </c>
-      <c r="D3" s="31">
-        <v>9057</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="A3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1980</v>
+      </c>
+      <c r="C3" s="18">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19">
+        <v>11675</v>
+      </c>
+      <c r="E3" s="20">
         <v>0</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="20">
         <v>0</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="20">
         <v>0</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="18">
         <v>0</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="30">
-        <v>13779</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="18">
+        <v>13825</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="34">
-        <v>-768</v>
+      <c r="M3" s="22">
+        <v>-1980</v>
       </c>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
@@ -1249,7 +1169,7 @@
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v>26lb</v>
+        <v>13lb</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
@@ -1263,25 +1183,25 @@
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
         <v>GMA</v>
       </c>
-      <c r="S3" s="1" t="str">
+      <c r="S3" s="1">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1307,20 +1227,20 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="22"/>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
       <c r="N5" s="1" t="str">
         <f>IF(A5="","",VLOOKUP(A5,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1346,20 +1266,20 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="22"/>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
       <c r="N6" s="1" t="str">
         <f>IF(A6="","",VLOOKUP(A6,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1385,9 +1305,20 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="J7" s="1"/>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
       <c r="N7" s="1" t="str">
         <f>IF(A7="","",VLOOKUP(A7,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1413,9 +1344,20 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="J8" s="1"/>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
       <c r="N8" s="1" t="str">
         <f>IF(A8="","",VLOOKUP(A8,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1441,9 +1383,20 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="J9" s="1"/>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
       <c r="N9" s="1" t="str">
         <f>IF(A9="","",VLOOKUP(A9,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1469,9 +1422,20 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="J10" s="1"/>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
       <c r="N10" s="1" t="str">
         <f>IF(A10="","",VLOOKUP(A10,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1497,9 +1461,20 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="J11" s="1"/>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
       <c r="N11" s="1" t="str">
         <f>IF(A11="","",VLOOKUP(A11,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1525,9 +1500,20 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="J12" s="1"/>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
       <c r="N12" s="1" t="str">
         <f>IF(A12="","",VLOOKUP(A12,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1553,9 +1539,20 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="J13" s="1"/>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
       <c r="N13" s="1" t="str">
         <f>IF(A13="","",VLOOKUP(A13,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1581,9 +1578,20 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="J14" s="1"/>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="N14" s="1" t="str">
         <f>IF(A14="","",VLOOKUP(A14,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1609,9 +1617,20 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="J15" s="1"/>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
       <c r="N15" s="1" t="str">
         <f>IF(A15="","",VLOOKUP(A15,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1637,9 +1656,20 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="J16" s="1"/>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
       <c r="N16" s="1" t="str">
         <f>IF(A16="","",VLOOKUP(A16,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1665,9 +1695,20 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="J17" s="1"/>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
       <c r="N17" s="1" t="str">
         <f>IF(A17="","",VLOOKUP(A17,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1693,9 +1734,20 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="J18" s="1"/>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
       <c r="N18" s="1" t="str">
         <f>IF(A18="","",VLOOKUP(A18,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1721,9 +1773,20 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
       <c r="N19" s="1" t="str">
         <f>IF(A19="","",VLOOKUP(A19,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1749,9 +1812,20 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="J20" s="1"/>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
       <c r="N20" s="1" t="str">
         <f>IF(A20="","",VLOOKUP(A20,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1777,9 +1851,20 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="J21" s="1"/>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21" s="1" t="str">
         <f>IF(A21="","",VLOOKUP(A21,nomes!$A:$C,2,FALSE))</f>
         <v/>
@@ -1805,9 +1890,20 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="J22" s="1"/>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
       <c r="N22" s="1" t="str">
         <f>IF(A22="","",VLOOKUP(A22,nomes!$A:$C,2,FALSE))</f>
         <v/>

--- a/sheet_ops.xlsx
+++ b/sheet_ops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iesus.candido_petfiv\Desktop\GitHub\PO_Press\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB83DB-8157-4F84-AF02-16840F5DD299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688FF049-22F3-4058-BA5D-78A05C6D0FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
   <si>
     <t>Viva Verde Grãos Mistos 4kg</t>
   </si>
@@ -544,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -613,35 +613,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,6 +643,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,33 +653,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,7 +950,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1064,49 +1028,49 @@
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
-        <v>960</v>
-      </c>
-      <c r="C2" s="11">
+        <v>1980</v>
+      </c>
+      <c r="C2" s="12">
         <v>10</v>
       </c>
-      <c r="D2" s="12">
-        <v>11322</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="D2" s="13">
+        <v>11675</v>
+      </c>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11">
-        <v>13824</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="18">
+        <v>14015</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="15">
-        <v>-960</v>
+      <c r="M2" s="17">
+        <v>-1980</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,2,FALSE))</f>
-        <v>SY Small Grains</v>
+        <v>SY Large Grains</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>IF(A2="","",VLOOKUP(A2,nomes!$A:$C,3,FALSE))</f>
-        <v>26lb</v>
+        <v>13lb</v>
       </c>
       <c r="P2" s="1" t="str">
         <f>IF(N2="","",IF(L2="amazon","BRASIL",VLOOKUP(K2,clientes!$A:$D,2,FALSE)))</f>
@@ -1125,83 +1089,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="17">
-        <v>1980</v>
-      </c>
-      <c r="C3" s="18">
-        <v>10</v>
-      </c>
-      <c r="D3" s="19">
-        <v>11675</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="18">
-        <v>13825</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="22">
-        <v>-1980</v>
-      </c>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,2,FALSE))</f>
-        <v>SY Small Grains</v>
+        <v/>
       </c>
       <c r="O3" s="1" t="str">
         <f>IF(A3="","",VLOOKUP(A3,nomes!$A:$C,3,FALSE))</f>
-        <v>13lb</v>
+        <v/>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","BRASIL",VLOOKUP(K3,clientes!$A:$D,2,FALSE)))</f>
-        <v>EUA</v>
+        <v/>
       </c>
       <c r="Q3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","AMAZON",VLOOKUP(K3,clientes!$A:$D,3,FALSE)))</f>
-        <v>FILADELFIA</v>
+        <v/>
       </c>
       <c r="R3" s="1" t="str">
         <f>IF(N3="","",IF(L3="amazon","PBR",VLOOKUP(K3,clientes!$A:$D,4,FALSE)))</f>
-        <v>GMA</v>
-      </c>
-      <c r="S3" s="1">
+        <v/>
+      </c>
+      <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S22" si="0">IF(N3="","",IF(C3&lt;10,"0"&amp;C3,C3))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
       <c r="N4" s="1" t="str">
         <f>IF(A4="","",VLOOKUP(A4,nomes!$A:$C,2,FALSE))</f>
         <v/>
